--- a/sample/ConsoleApp/Templates/Test1.xlsx
+++ b/sample/ConsoleApp/Templates/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\product\TemplateFiller\sample\ConsoleApp\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173A54DD-D4FB-4455-BA7A-7E64CCAA40EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7336172F-D217-4FF1-BB55-FD678B4A7B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试打断</t>
+    <t>任意文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>

--- a/sample/ConsoleApp/Templates/Test1.xlsx
+++ b/sample/ConsoleApp/Templates/Test1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\product\TemplateFiller\sample\ConsoleApp\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7336172F-D217-4FF1-BB55-FD678B4A7B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78EDC07-9A01-4FD8-89B8-17A50D79A4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="使用任意文本作为阻挡" sheetId="2" r:id="rId1"/>
+    <sheet name="使用合并单元格作为阻挡" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>{PrintTime}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,7 +159,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>任意文本</t>
+    <t>阻挡文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -284,11 +285,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,16 +354,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -594,11 +656,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EC59A6-BDBF-4A2C-BCE5-12E4C3A74F01}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -612,12 +674,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -629,13 +691,13 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -684,81 +746,254 @@
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>

--- a/sample/ConsoleApp/Templates/Test1.xlsx
+++ b/sample/ConsoleApp/Templates/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\product\TemplateFiller\sample\ConsoleApp\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78EDC07-9A01-4FD8-89B8-17A50D79A4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D167C-434A-4A91-A2CA-9FB6A44F7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>{PrintTime}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,27 +139,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Persons:Name]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Persons:Age]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Persons:Sex]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Persons:WorkNo]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Persons:Description]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阻挡文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Persons.WorkNo]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Persons.Description]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Persons.Info:Name]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Persons.Info:Age]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Persons.Info:Sex]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Counts]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,11 +367,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,8 +381,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -660,7 +664,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -674,11 +678,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
@@ -686,18 +690,20 @@
         <v>0</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -726,19 +732,19 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -760,11 +766,11 @@
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
     </row>
@@ -834,7 +840,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -848,11 +854,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
@@ -860,18 +866,20 @@
         <v>0</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -900,19 +908,19 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -934,9 +942,9 @@
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
     </row>

--- a/sample/ConsoleApp/Templates/Test1.xlsx
+++ b/sample/ConsoleApp/Templates/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\product\TemplateFiller\sample\ConsoleApp\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52D167C-434A-4A91-A2CA-9FB6A44F7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06C38A6-1A74-4E3B-8CFA-01A943857BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EC59A6-BDBF-4A2C-BCE5-12E4C3A74F01}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A8" sqref="A8:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -774,54 +774,90 @@
       <c r="D7" s="16"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
